--- a/output_validation/04_pin_factor_boy.xlsx
+++ b/output_validation/04_pin_factor_boy.xlsx
@@ -31,28 +31,28 @@
     <t>TotN</t>
   </si>
   <si>
-    <t>% 1-2</t>
-  </si>
-  <si>
-    <t># 1-2</t>
-  </si>
-  <si>
-    <t>% 3</t>
-  </si>
-  <si>
-    <t># 3</t>
-  </si>
-  <si>
-    <t>% 4</t>
-  </si>
-  <si>
-    <t># 4</t>
-  </si>
-  <si>
-    <t>% 5</t>
-  </si>
-  <si>
-    <t># 5</t>
+    <t>% severity levels 1-2</t>
+  </si>
+  <si>
+    <t># severity levels 1-2</t>
+  </si>
+  <si>
+    <t>% severity level 3</t>
+  </si>
+  <si>
+    <t># severity level 3</t>
+  </si>
+  <si>
+    <t>% severity level 4</t>
+  </si>
+  <si>
+    <t># severity level 4</t>
+  </si>
+  <si>
+    <t>% severity level 5</t>
+  </si>
+  <si>
+    <t># severity level 5</t>
   </si>
   <si>
     <t>MMR001</t>

--- a/output_validation/04_pin_factor_boy.xlsx
+++ b/output_validation/04_pin_factor_boy.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="33">
-  <si>
-    <t>admin1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="36">
+  <si>
+    <t>admin3</t>
   </si>
   <si>
     <t>Population group</t>
@@ -52,61 +52,70 @@
     <t># severity level 5</t>
   </si>
   <si>
-    <t>MMR001</t>
-  </si>
-  <si>
-    <t>MMR002</t>
-  </si>
-  <si>
-    <t>MMR003</t>
-  </si>
-  <si>
-    <t>MMR004</t>
-  </si>
-  <si>
-    <t>MMR005</t>
-  </si>
-  <si>
-    <t>MMR006</t>
-  </si>
-  <si>
-    <t>MMR007</t>
-  </si>
-  <si>
-    <t>MMR008</t>
-  </si>
-  <si>
-    <t>MMR009</t>
-  </si>
-  <si>
-    <t>MMR010</t>
-  </si>
-  <si>
-    <t>MMR011</t>
-  </si>
-  <si>
-    <t>MMR012</t>
-  </si>
-  <si>
-    <t>MMR013</t>
-  </si>
-  <si>
-    <t>MMR014</t>
-  </si>
-  <si>
-    <t>MMR015</t>
-  </si>
-  <si>
-    <t>MMR016</t>
-  </si>
-  <si>
-    <t>MMR017</t>
-  </si>
-  <si>
-    <t>MMR018</t>
+    <t>MMR008003</t>
+  </si>
+  <si>
+    <t>MMR009018</t>
+  </si>
+  <si>
+    <t>MMR009019</t>
+  </si>
+  <si>
+    <t>MMR009020</t>
+  </si>
+  <si>
+    <t>MMR012003</t>
+  </si>
+  <si>
+    <t>MMR012004</t>
+  </si>
+  <si>
+    <t>MMR012006</t>
+  </si>
+  <si>
+    <t>MMR012010</t>
+  </si>
+  <si>
+    <t>MMR012011</t>
+  </si>
+  <si>
+    <t>MMR012014</t>
+  </si>
+  <si>
+    <t>MMR012015</t>
+  </si>
+  <si>
+    <t>MMR012016</t>
+  </si>
+  <si>
+    <t>MMR001001</t>
+  </si>
+  <si>
+    <t>MMR001002</t>
+  </si>
+  <si>
+    <t>MMR001004</t>
+  </si>
+  <si>
+    <t>MMR002005</t>
+  </si>
+  <si>
+    <t>MMR002006</t>
+  </si>
+  <si>
+    <t>MMR002007</t>
   </si>
   <si>
     <t>ocap</t>
+  </si>
+  <si>
+    <t>MMR012001</t>
+  </si>
+  <si>
+    <t>MMR012005</t>
+  </si>
+  <si>
+    <t>MMR012007</t>
   </si>
   <si>
     <t>idp</t>
@@ -522,13 +531,13 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <v>56476.13999999999</v>
+        <v>124041.96</v>
       </c>
       <c r="D2">
-        <v>0.9140697865545047</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>51623.13323522232</v>
+        <v>124041.96</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -537,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.08593021344549534</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4853.006764777677</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -557,25 +566,25 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>29570.52</v>
+        <v>144008.76</v>
       </c>
       <c r="D3">
-        <v>0.2953518416036127</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8733.707539176459</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6741199099500413</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>19934.0762795759</v>
+        <v>144008.76</v>
       </c>
       <c r="H3">
-        <v>0.03052824844634616</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>902.7361812476478</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -592,19 +601,19 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>42660.24</v>
+        <v>29570.52</v>
       </c>
       <c r="D4">
-        <v>0.6703202566789164</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>28596.02302678417</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3296797433210837</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>14064.21697321583</v>
+        <v>29570.52</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -627,31 +636,31 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>47614.13999999999</v>
+        <v>281767.4999999999</v>
       </c>
       <c r="D5">
-        <v>0.125776487776275</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>5988.739297687847</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7550424483963755</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>35950.6968438878</v>
+        <v>281767.4999999999</v>
       </c>
       <c r="H5">
-        <v>0.03435466991323431</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1635.768062902526</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08482639391411527</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4038.935795521832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,25 +671,25 @@
         <v>29</v>
       </c>
       <c r="C6">
-        <v>124041.96</v>
+        <v>56476.13999999999</v>
       </c>
       <c r="D6">
-        <v>0.1225075068689798</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>15196.07126674172</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8774924931310202</v>
+        <v>0.6964641341585097</v>
       </c>
       <c r="G6">
-        <v>108845.8887332583</v>
+        <v>39333.60594571477</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3035358658414903</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>17142.53405428522</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -697,25 +706,25 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>133585.844</v>
+        <v>51165.24</v>
       </c>
       <c r="D7">
-        <v>0.7256068481815973</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>96930.80322651852</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2146109304523383</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>28668.9822761009</v>
+        <v>51165.24</v>
       </c>
       <c r="H7">
-        <v>0.05978222136606444</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>7986.058497380549</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -732,31 +741,31 @@
         <v>29</v>
       </c>
       <c r="C8">
-        <v>53642.134</v>
+        <v>104144.04</v>
       </c>
       <c r="D8">
-        <v>0.7924190383905769</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>42507.04824149847</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1591963593292097</v>
+        <v>0.8613945520003562</v>
       </c>
       <c r="G8">
-        <v>8539.632439449617</v>
+        <v>89709.10867930716</v>
       </c>
       <c r="H8">
-        <v>0.04838460228021334</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2595.453319051909</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1386054479996439</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14434.93132069284</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,13 +776,13 @@
         <v>29</v>
       </c>
       <c r="C9">
-        <v>38718.694</v>
+        <v>62032.31999999999</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>38718.694</v>
+        <v>62032.31999999999</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -802,19 +811,19 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>36645.665</v>
+        <v>56257.74</v>
       </c>
       <c r="D10">
-        <v>0.6777018473264718</v>
+        <v>0.4190776228049733</v>
       </c>
       <c r="E10">
-        <v>24834.83486700703</v>
+        <v>23576.35994358026</v>
       </c>
       <c r="F10">
-        <v>0.3222981526735283</v>
+        <v>0.5809223771950267</v>
       </c>
       <c r="G10">
-        <v>11810.83013299297</v>
+        <v>32681.38005641974</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -840,16 +849,16 @@
         <v>281767.4999999999</v>
       </c>
       <c r="D11">
-        <v>0.8620064665872667</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>242885.4070741276</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1379935334127334</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>38882.09292587236</v>
+        <v>281767.4999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -872,25 +881,25 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>56257.74</v>
+        <v>53642.134</v>
       </c>
       <c r="D12">
-        <v>0.7715321758342893</v>
+        <v>0.3864325710142018</v>
       </c>
       <c r="E12">
-        <v>43404.65654971972</v>
+        <v>20729.06775630833</v>
       </c>
       <c r="F12">
-        <v>0.1457899511717343</v>
+        <v>0.6135674289857982</v>
       </c>
       <c r="G12">
-        <v>8201.813167632121</v>
+        <v>32913.06624369167</v>
       </c>
       <c r="H12">
-        <v>0.08267787299397636</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4651.270282648143</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -907,31 +916,31 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>62032.31999999999</v>
+        <v>44203.45299999999</v>
       </c>
       <c r="D13">
-        <v>0.2976141001389314</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>18461.69309633024</v>
+        <v>44203.45299999999</v>
       </c>
       <c r="F13">
-        <v>0.6202356802759943</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>38474.65819429816</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.03738545073187088</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2319.106243143649</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0447647688532033</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>2776.86246622794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -942,25 +951,25 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>44203.45299999999</v>
+        <v>124041.96</v>
       </c>
       <c r="D14">
-        <v>0.5554147187463672</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E14">
-        <v>24551.24841561326</v>
+        <v>113383.0079010024</v>
       </c>
       <c r="F14">
-        <v>0.4041575688726384</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>17865.16010025593</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.04042771238099447</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I14">
-        <v>1787.044484130807</v>
+        <v>10658.95209899759</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -977,25 +986,25 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>144008.76</v>
+        <v>56476.13999999999</v>
       </c>
       <c r="D15">
-        <v>0.8804077503986378</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E15">
-        <v>126786.4284292973</v>
+        <v>51623.13323522232</v>
       </c>
       <c r="F15">
-        <v>0.1195922496013622</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>17222.33157070266</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4853.006764777677</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1012,25 +1021,25 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>104144.04</v>
+        <v>51165.24</v>
       </c>
       <c r="D16">
-        <v>0.6968263533264397</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="E16">
-        <v>72570.31161388286</v>
+        <v>46768.60000581</v>
       </c>
       <c r="F16">
-        <v>0.3031736466735603</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>31573.72838611712</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4396.639994189995</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1047,25 +1056,25 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>33257.29399999999</v>
+        <v>38718.694</v>
       </c>
       <c r="D17">
-        <v>0.9310762092269746</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E17">
-        <v>30965.07522666701</v>
+        <v>11435.63757738675</v>
       </c>
       <c r="F17">
-        <v>0.06892379077302539</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G17">
-        <v>2292.218773332992</v>
+        <v>26101.0425126632</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1182.013909950052</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1082,25 +1091,25 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>38465.035</v>
+        <v>133585.844</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E18">
-        <v>38465.035</v>
+        <v>39454.8250375729</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>90052.87712788025</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4078.141834546839</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1117,25 +1126,25 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>51165.24</v>
+        <v>33257.29399999999</v>
       </c>
       <c r="D19">
-        <v>0.7262436922562635</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="E19">
-        <v>37158.43281277786</v>
+        <v>9822.603029652777</v>
       </c>
       <c r="F19">
-        <v>0.2737563077437364</v>
+        <v>0.6741199099500413</v>
       </c>
       <c r="G19">
-        <v>14006.80718722213</v>
+        <v>22419.40403646205</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1015.286933885177</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1151,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1194,31 +1203,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>8068.02</v>
+        <v>20572.68</v>
       </c>
       <c r="D2">
-        <v>0.6986378325573731</v>
+        <v>0.7203196040432472</v>
       </c>
       <c r="E2">
-        <v>5636.624005829538</v>
+        <v>14818.90471170843</v>
       </c>
       <c r="F2">
-        <v>0.1309296905708729</v>
+        <v>0.2796803959567528</v>
       </c>
       <c r="G2">
-        <v>1056.343362119614</v>
+        <v>5753.775288291569</v>
       </c>
       <c r="H2">
-        <v>0.1704324768717539</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1375.052632050848</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1229,31 +1238,31 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>4224.36</v>
+        <v>40252.5</v>
       </c>
       <c r="D3">
-        <v>0.4671520190982254</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1973.418303397779</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4362981448828352</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1843.080431317254</v>
+        <v>40252.5</v>
       </c>
       <c r="H3">
-        <v>0.09654983601893945</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>407.861265284967</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1264,31 +1273,31 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>6094.320000000001</v>
+        <v>17720.28</v>
       </c>
       <c r="D4">
-        <v>0.5505005570185084</v>
+        <v>0.2686371247226884</v>
       </c>
       <c r="E4">
-        <v>3354.926554649036</v>
+        <v>4760.32506848096</v>
       </c>
       <c r="F4">
-        <v>0.4494994429814916</v>
+        <v>0.5716063443351023</v>
       </c>
       <c r="G4">
-        <v>2739.393445350964</v>
+        <v>10129.02447139443</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1597565309422093</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2830.930460124614</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1299,31 +1308,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>6802.02</v>
+        <v>8068.02</v>
       </c>
       <c r="D5">
-        <v>0.2362255938995011</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1606.811214216285</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7237605554225978</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4923.033773195619</v>
+        <v>8068.02</v>
       </c>
       <c r="H5">
-        <v>0.04001385067790107</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>272.1750125880966</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1334,31 +1343,31 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>17720.28</v>
+        <v>6802.02</v>
       </c>
       <c r="D6">
-        <v>0.06043364741733242</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1070.901153656407</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8583608304788509</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>15210.39425711777</v>
+        <v>6802.02</v>
       </c>
       <c r="H6">
-        <v>0.08120552210381662</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1438.98458922582</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1369,66 +1378,66 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>19083.692</v>
+        <v>6094.320000000001</v>
       </c>
       <c r="D7">
-        <v>0.165981388455387</v>
+        <v>0.5480373400211801</v>
       </c>
       <c r="E7">
-        <v>3167.537695014962</v>
+        <v>3339.914922037879</v>
       </c>
       <c r="F7">
-        <v>0.6465252877086792</v>
+        <v>0.18983405326939</v>
       </c>
       <c r="G7">
-        <v>12338.08946084382</v>
+        <v>1156.909467520709</v>
       </c>
       <c r="H7">
-        <v>0.1874933238359339</v>
+        <v>0.1812730652342958</v>
       </c>
       <c r="I7">
-        <v>3578.064844141221</v>
+        <v>1104.736066918673</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08085554147513409</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>492.7595435227392</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>7663.161999999999</v>
+        <v>8861.76</v>
       </c>
       <c r="D8">
-        <v>0.8382017667306252</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>6423.275927142991</v>
+        <v>8861.76</v>
       </c>
       <c r="F8">
-        <v>0.1230474506907969</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>942.9325483305882</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.03875078257857791</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>296.9535245264203</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1439,31 +1448,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>5235.094999999999</v>
+        <v>17720.28</v>
       </c>
       <c r="D9">
-        <v>0.3348719340637654</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E9">
-        <v>1753.086387657548</v>
+        <v>12380.05801150977</v>
       </c>
       <c r="F9">
-        <v>0.5078237190080316</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G9">
-        <v>2658.505412260351</v>
+        <v>2320.110777229227</v>
       </c>
       <c r="H9">
-        <v>0.1573043469282031</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I9">
-        <v>823.5032000821016</v>
+        <v>3020.111211261004</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1474,31 +1483,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>8036.82</v>
+        <v>8068.02</v>
       </c>
       <c r="D10">
-        <v>0.5046915229780159</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E10">
-        <v>4056.114925700178</v>
+        <v>5636.624005829538</v>
       </c>
       <c r="F10">
-        <v>0.3583226586368378</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G10">
-        <v>2879.774709385711</v>
+        <v>1056.343362119614</v>
       </c>
       <c r="H10">
-        <v>0.1369858183851464</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I10">
-        <v>1100.930364914112</v>
+        <v>1375.052632050848</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1509,66 +1518,66 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>8861.76</v>
+        <v>7309.320000000001</v>
       </c>
       <c r="D11">
-        <v>0.3709017435176196</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="E11">
-        <v>3286.8422346347</v>
+        <v>5106.567482268259</v>
       </c>
       <c r="F11">
-        <v>0.4558409666193095</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="G11">
-        <v>4039.553244348332</v>
+        <v>957.0070058834925</v>
       </c>
       <c r="H11">
-        <v>0.1422492925461661</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="I11">
-        <v>1260.579090713913</v>
+        <v>1245.745511848248</v>
       </c>
       <c r="J11">
-        <v>0.03100799731690495</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>274.7854303030556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>20572.68</v>
+        <v>5531.242</v>
       </c>
       <c r="D12">
-        <v>0.4017572619326708</v>
+        <v>0.4671520190982254</v>
       </c>
       <c r="E12">
-        <v>8265.223587417018</v>
+        <v>2583.930868420906</v>
       </c>
       <c r="F12">
-        <v>0.5982427380673293</v>
+        <v>0.4362981448828352</v>
       </c>
       <c r="G12">
-        <v>12307.45641258298</v>
+        <v>2413.270623498023</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.09654983601893945</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>534.0405080810707</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1579,36 +1588,71 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>14877.72</v>
+        <v>19083.692</v>
       </c>
       <c r="D13">
-        <v>0.07542672232317281</v>
+        <v>0.4671520190982254</v>
       </c>
       <c r="E13">
-        <v>1122.177655241915</v>
+        <v>8914.985249648651</v>
       </c>
       <c r="F13">
-        <v>0.8690003027501599</v>
+        <v>0.4362981448828352</v>
       </c>
       <c r="G13">
-        <v>12928.74318423211</v>
+        <v>8326.179417115405</v>
       </c>
       <c r="H13">
-        <v>0.05557297492666727</v>
+        <v>0.09654983601893945</v>
       </c>
       <c r="I13">
-        <v>826.7991605259762</v>
+        <v>1842.527333235947</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>4751.041999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.4671520190982254</v>
+      </c>
+      <c r="E14">
+        <v>2219.458863120471</v>
+      </c>
+      <c r="F14">
+        <v>0.4362981448828352</v>
+      </c>
+      <c r="G14">
+        <v>2072.870810860435</v>
+      </c>
+      <c r="H14">
+        <v>0.09654983601893945</v>
+      </c>
+      <c r="I14">
+        <v>458.7123260190941</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>0</v>
       </c>
     </row>
@@ -1619,7 +1663,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1662,25 +1706,25 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>4034.01</v>
+        <v>2112.18</v>
       </c>
       <c r="D2">
-        <v>0.5697812081955935</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2298.503091673106</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4302187918044066</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1735.506908326894</v>
+        <v>2112.18</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1697,25 +1741,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>2112.18</v>
+        <v>20126.25</v>
       </c>
       <c r="D3">
-        <v>0.112582448398471</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>237.7943958582824</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8584936775155422</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1813.293175774778</v>
+        <v>20126.25</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1724,39 +1768,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02892387408598686</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>61.09242836693972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>3047.16</v>
+        <v>8860.140000000001</v>
       </c>
       <c r="D4">
-        <v>0.7742993638732156</v>
+        <v>0.4958472855812806</v>
       </c>
       <c r="E4">
-        <v>2359.414049619908</v>
+        <v>4393.276368870127</v>
       </c>
       <c r="F4">
-        <v>0.2257006361267845</v>
+        <v>0.2016356958596897</v>
       </c>
       <c r="G4">
-        <v>687.7459503800925</v>
+        <v>1786.520494314271</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3025170185590298</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2680.343136815603</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1767,31 +1811,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>3401.01</v>
+        <v>4034.01</v>
       </c>
       <c r="D5">
-        <v>0.4535007307593025</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1542.360520319696</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4693465799928334</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1596.252412021426</v>
+        <v>4034.01</v>
       </c>
       <c r="H5">
-        <v>0.07715268924786407</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>262.3970676588782</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1802,25 +1846,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>8860.140000000001</v>
+        <v>3654.66</v>
       </c>
       <c r="D6">
-        <v>0.05932678460569384</v>
+        <v>0.8405128819480061</v>
       </c>
       <c r="E6">
-        <v>525.6436173562922</v>
+        <v>3071.788809140101</v>
       </c>
       <c r="F6">
-        <v>0.9406732153943062</v>
+        <v>0.1594871180519939</v>
       </c>
       <c r="G6">
-        <v>8334.496382643709</v>
+        <v>582.8711908598999</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1837,31 +1881,31 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>9541.846000000001</v>
+        <v>3401.01</v>
       </c>
       <c r="D7">
-        <v>0.4111018004330445</v>
+        <v>0.5079094701116023</v>
       </c>
       <c r="E7">
-        <v>3922.670070054844</v>
+        <v>1727.405186944261</v>
       </c>
       <c r="F7">
-        <v>0.2813629377676347</v>
+        <v>0.4920905298883979</v>
       </c>
       <c r="G7">
-        <v>2684.721822286354</v>
+        <v>1673.60481305574</v>
       </c>
       <c r="H7">
-        <v>0.3075352617993207</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2934.454107658802</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1875,22 +1919,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>3831.581</v>
+        <v>7438.86</v>
       </c>
       <c r="D8">
-        <v>0.6174902311128901</v>
+        <v>0.5648647401941971</v>
       </c>
       <c r="E8">
-        <v>2365.963837217759</v>
+        <v>4201.949721241004</v>
       </c>
       <c r="F8">
-        <v>0.3825097688871097</v>
+        <v>0.4351352598058029</v>
       </c>
       <c r="G8">
-        <v>1465.617162782241</v>
+        <v>3236.910278758995</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1907,31 +1951,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>2617.5475</v>
+        <v>20126.25</v>
       </c>
       <c r="D9">
-        <v>0.1101821941067391</v>
+        <v>0.5514290487937468</v>
       </c>
       <c r="E9">
-        <v>288.4071267286097</v>
+        <v>11098.19889328515</v>
       </c>
       <c r="F9">
-        <v>0.7635005315760697</v>
+        <v>0.4485709512062533</v>
       </c>
       <c r="G9">
-        <v>1998.498907675612</v>
+        <v>9028.051106714855</v>
       </c>
       <c r="H9">
-        <v>0.1263172743171913</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>330.6414655957781</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1942,31 +1986,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>4018.41</v>
+        <v>8860.140000000001</v>
       </c>
       <c r="D10">
-        <v>0.4768203747314557</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E10">
-        <v>1916.059762024629</v>
+        <v>5048.341273982106</v>
       </c>
       <c r="F10">
-        <v>0.3771087072538309</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G10">
-        <v>1515.377400315867</v>
+        <v>3811.798726017895</v>
       </c>
       <c r="H10">
-        <v>0.1460709180147134</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>586.9728376595044</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1977,31 +2021,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>4430.88</v>
+        <v>4034.01</v>
       </c>
       <c r="D11">
-        <v>0.5063949657374379</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E11">
-        <v>2243.775325786699</v>
+        <v>2298.503091673106</v>
       </c>
       <c r="F11">
-        <v>0.4543501314915568</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G11">
-        <v>2013.170910623309</v>
+        <v>1735.506908326894</v>
       </c>
       <c r="H11">
-        <v>0.03925490277100506</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>173.9337635899909</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2012,25 +2056,25 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>10286.34</v>
+        <v>3654.66</v>
       </c>
       <c r="D12">
-        <v>0.6101954436206178</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="E12">
-        <v>6276.677799532506</v>
+        <v>2082.356590344108</v>
       </c>
       <c r="F12">
-        <v>0.3898045563793823</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="G12">
-        <v>4009.662200467495</v>
+        <v>1572.303409655892</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2047,37 +2091,107 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>7438.86</v>
+        <v>2765.621</v>
       </c>
       <c r="D13">
-        <v>0.4427434746950732</v>
+        <v>0.112582448398471</v>
       </c>
       <c r="E13">
-        <v>3293.506724170192</v>
+        <v>311.3603835222277</v>
       </c>
       <c r="F13">
-        <v>0.4344131602771897</v>
+        <v>0.8584936775155422</v>
       </c>
       <c r="G13">
-        <v>3231.538681459575</v>
+        <v>2374.268142904211</v>
       </c>
       <c r="H13">
-        <v>0.1228433650277372</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>913.8145943702328</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02892387408598686</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>79.99247357356106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>9541.846000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="E14">
+        <v>1074.244384921157</v>
+      </c>
+      <c r="F14">
+        <v>0.8584936775155422</v>
+      </c>
+      <c r="G14">
+        <v>8191.614462826968</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.02892387408598686</v>
+      </c>
+      <c r="K14">
+        <v>275.9871522518774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>2375.521</v>
+      </c>
+      <c r="D15">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="E15">
+        <v>267.4419704019842</v>
+      </c>
+      <c r="F15">
+        <v>0.8584936775155422</v>
+      </c>
+      <c r="G15">
+        <v>2039.369759305398</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.02892387408598686</v>
+      </c>
+      <c r="K15">
+        <v>68.70927029261759</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2201,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2130,36 +2244,211 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>26580.42</v>
+      </c>
+      <c r="D2">
+        <v>0.2304031860173474</v>
+      </c>
+      <c r="E2">
+        <v>6124.213453679222</v>
+      </c>
+      <c r="F2">
+        <v>0.4969275497660341</v>
+      </c>
+      <c r="G2">
+        <v>13208.54298235209</v>
+      </c>
+      <c r="H2">
+        <v>0.2726692642166184</v>
+      </c>
+      <c r="I2">
+        <v>7247.663563968687</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>12102.03</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>12102.03</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>10963.98</v>
+      </c>
+      <c r="D4">
+        <v>0.7820095700217157</v>
+      </c>
+      <c r="E4">
+        <v>8573.93728552669</v>
+      </c>
+      <c r="F4">
+        <v>0.2179904299782842</v>
+      </c>
+      <c r="G4">
+        <v>2390.042714473308</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>10203.03</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>10203.03</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>9141.48</v>
+      </c>
+      <c r="D6">
+        <v>0.233279274036484</v>
+      </c>
+      <c r="E6">
+        <v>2132.517818019037</v>
+      </c>
+      <c r="F6">
+        <v>0.7667207259635161</v>
+      </c>
+      <c r="G6">
+        <v>7008.962181980963</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
         <v>13292.64</v>
       </c>
-      <c r="D2">
-        <v>0.357012769940906</v>
-      </c>
-      <c r="E2">
-        <v>4745.642226227284</v>
-      </c>
-      <c r="F2">
-        <v>0.5302458965458244</v>
-      </c>
-      <c r="G2">
-        <v>7048.367814260887</v>
-      </c>
-      <c r="H2">
-        <v>0.1127413335132695</v>
-      </c>
-      <c r="I2">
-        <v>1498.629959511827</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>13292.64</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0</v>
       </c>
     </row>

--- a/output_validation/04_pin_factor_boy.xlsx
+++ b/output_validation/04_pin_factor_boy.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="36">
-  <si>
-    <t>admin3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="33">
+  <si>
+    <t>admin1</t>
   </si>
   <si>
     <t>Population group</t>
@@ -52,70 +52,61 @@
     <t># severity level 5</t>
   </si>
   <si>
-    <t>MMR008003</t>
-  </si>
-  <si>
-    <t>MMR009018</t>
-  </si>
-  <si>
-    <t>MMR009019</t>
-  </si>
-  <si>
-    <t>MMR009020</t>
-  </si>
-  <si>
-    <t>MMR012003</t>
-  </si>
-  <si>
-    <t>MMR012004</t>
-  </si>
-  <si>
-    <t>MMR012006</t>
-  </si>
-  <si>
-    <t>MMR012010</t>
-  </si>
-  <si>
-    <t>MMR012011</t>
-  </si>
-  <si>
-    <t>MMR012014</t>
-  </si>
-  <si>
-    <t>MMR012015</t>
-  </si>
-  <si>
-    <t>MMR012016</t>
-  </si>
-  <si>
-    <t>MMR001001</t>
-  </si>
-  <si>
-    <t>MMR001002</t>
-  </si>
-  <si>
-    <t>MMR001004</t>
-  </si>
-  <si>
-    <t>MMR002005</t>
-  </si>
-  <si>
-    <t>MMR002006</t>
-  </si>
-  <si>
-    <t>MMR002007</t>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>MMR015</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>MMR018</t>
   </si>
   <si>
     <t>ocap</t>
-  </si>
-  <si>
-    <t>MMR012001</t>
-  </si>
-  <si>
-    <t>MMR012005</t>
-  </si>
-  <si>
-    <t>MMR012007</t>
   </si>
   <si>
     <t>idp</t>
@@ -531,31 +522,31 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <v>124041.96</v>
+        <v>56476.13999999999</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.7355010475254173</v>
       </c>
       <c r="E2">
-        <v>124041.96</v>
+        <v>41538.26013019212</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.2347291702405611</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>13256.59748058976</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02317121176486182</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1308.620599601983</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.006598570469159679</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>372.6617896161276</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -566,25 +557,25 @@
         <v>29</v>
       </c>
       <c r="C3">
-        <v>144008.76</v>
+        <v>29570.52</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2881114296960966</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>8519.604794057017</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6737953618662589</v>
       </c>
       <c r="G3">
-        <v>144008.76</v>
+        <v>19924.47922397344</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.03809320843764467</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1126.43598196954</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -601,31 +592,31 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>29570.52</v>
+        <v>42660.24</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.542864226316311</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>23158.71818206814</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3976487884179679</v>
       </c>
       <c r="G4">
-        <v>29570.52</v>
+        <v>16963.79274961973</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.05502289074026563</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2347.289724473509</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.004464094525455411</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>190.4393438386139</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -636,31 +627,31 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>281767.4999999999</v>
+        <v>47614.13999999999</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2957402131124322</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>14081.41591076518</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6578798859844721</v>
       </c>
       <c r="G5">
-        <v>281767.4999999999</v>
+        <v>31324.38499444869</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.03533270074859607</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1682.336160021758</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01104720015449962</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>526.0029347643664</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -671,31 +662,31 @@
         <v>29</v>
       </c>
       <c r="C6">
-        <v>56476.13999999999</v>
+        <v>124041.96</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2168995155835068</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>26904.64103602872</v>
       </c>
       <c r="F6">
-        <v>0.6964641341585097</v>
+        <v>0.7305780530002808</v>
       </c>
       <c r="G6">
-        <v>39333.60594571477</v>
+        <v>90622.33362713869</v>
       </c>
       <c r="H6">
-        <v>0.3035358658414903</v>
+        <v>0.04763420632265963</v>
       </c>
       <c r="I6">
-        <v>17142.53405428522</v>
+        <v>5908.640315307092</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.004888225093552757</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>606.3450215254672</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -706,25 +697,25 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>51165.24</v>
+        <v>133585.844</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.7255237755561456</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>96919.70589973425</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.2370695257967525</v>
       </c>
       <c r="G7">
-        <v>51165.24</v>
+        <v>31669.13269023894</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.03740669864710201</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4997.005410026778</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -741,31 +732,31 @@
         <v>29</v>
       </c>
       <c r="C8">
-        <v>104144.04</v>
+        <v>53642.134</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.7749837497270196</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>41571.78215067924</v>
       </c>
       <c r="F8">
-        <v>0.8613945520003562</v>
+        <v>0.209809235113927</v>
       </c>
       <c r="G8">
-        <v>89709.10867930716</v>
+        <v>11254.61510441877</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0152070151590535</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>815.736744901979</v>
       </c>
       <c r="J8">
-        <v>0.1386054479996439</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>14434.93132069284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -776,25 +767,25 @@
         <v>29</v>
       </c>
       <c r="C9">
-        <v>62032.31999999999</v>
+        <v>38718.694</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.7567306197548094</v>
       </c>
       <c r="E9">
-        <v>62032.31999999999</v>
+        <v>29299.62130671682</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1675719832943586</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>6488.168344147381</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.07569739695083223</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2930.904349135806</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -811,25 +802,25 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>56257.74</v>
+        <v>36645.665</v>
       </c>
       <c r="D10">
-        <v>0.4190776228049733</v>
+        <v>0.7815722567773472</v>
       </c>
       <c r="E10">
-        <v>23576.35994358026</v>
+        <v>28641.23509515664</v>
       </c>
       <c r="F10">
-        <v>0.5809223771950267</v>
+        <v>0.2048177817451928</v>
       </c>
       <c r="G10">
-        <v>32681.38005641974</v>
+        <v>7505.68381587745</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0136099614774599</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>498.7460889659005</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -849,28 +840,28 @@
         <v>281767.4999999999</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.7738342948998559</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>218041.3546881951</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.1835332944656455</v>
       </c>
       <c r="G11">
-        <v>281767.4999999999</v>
+        <v>51713.71754834875</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03543814744568882</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>9985.318210403124</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.007194263188809723</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2027.109553052943</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -881,31 +872,31 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>53642.134</v>
+        <v>56257.74</v>
       </c>
       <c r="D12">
-        <v>0.3864325710142018</v>
+        <v>0.6759834838293406</v>
       </c>
       <c r="E12">
-        <v>20729.06775630833</v>
+        <v>38029.30307756524</v>
       </c>
       <c r="F12">
-        <v>0.6135674289857982</v>
+        <v>0.1561867307546227</v>
       </c>
       <c r="G12">
-        <v>32913.06624369167</v>
+        <v>8786.712490243564</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08718604184052609</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4904.889673493438</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.08064374357551064</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4536.834758697748</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -916,31 +907,31 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>44203.45299999999</v>
+        <v>62032.31999999999</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.4619138320502864</v>
       </c>
       <c r="E13">
-        <v>44203.45299999999</v>
+        <v>28653.58664216962</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.4818668178334236</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>29891.31664122463</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.05227372759553111</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3242.660597798816</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.003945622520758929</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>244.7561188069245</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -951,31 +942,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>124041.96</v>
+        <v>44203.45299999999</v>
       </c>
       <c r="D14">
-        <v>0.9140697865545047</v>
+        <v>0.6577904324554797</v>
       </c>
       <c r="E14">
-        <v>113383.0079010024</v>
+        <v>29076.60846489547</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.2601186299610622</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>11498.1416339082</v>
       </c>
       <c r="H14">
-        <v>0.08593021344549534</v>
+        <v>0.07780282150174836</v>
       </c>
       <c r="I14">
-        <v>10658.95209899759</v>
+        <v>3439.153363519923</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.004288116081709647</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>189.5495376763965</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -986,25 +977,25 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>56476.13999999999</v>
+        <v>144008.76</v>
       </c>
       <c r="D15">
-        <v>0.9140697865545047</v>
+        <v>0.8174822877535954</v>
       </c>
       <c r="E15">
-        <v>51623.13323522232</v>
+        <v>117724.6105813585</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.1384496847897296</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>19937.96742895982</v>
       </c>
       <c r="H15">
-        <v>0.08593021344549534</v>
+        <v>0.04406802745667497</v>
       </c>
       <c r="I15">
-        <v>4853.006764777677</v>
+        <v>6346.181989681715</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1021,31 +1012,31 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>51165.24</v>
+        <v>104144.04</v>
       </c>
       <c r="D16">
-        <v>0.9140697865545047</v>
+        <v>0.5381211257149618</v>
       </c>
       <c r="E16">
-        <v>46768.60000581</v>
+        <v>56042.10804130401</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.3977397650072821</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>41422.22599650898</v>
       </c>
       <c r="H16">
-        <v>0.08593021344549534</v>
+        <v>0.05827276357034409</v>
       </c>
       <c r="I16">
-        <v>4396.639994189995</v>
+        <v>6068.761020180457</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.005866345707411853</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>610.9449420065283</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1056,25 +1047,25 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>38718.694</v>
+        <v>33257.29399999999</v>
       </c>
       <c r="D17">
-        <v>0.2953518416036127</v>
+        <v>0.8548534137558078</v>
       </c>
       <c r="E17">
-        <v>11435.63757738675</v>
+        <v>28430.11130818054</v>
       </c>
       <c r="F17">
-        <v>0.6741199099500413</v>
+        <v>0.1094267861545242</v>
       </c>
       <c r="G17">
-        <v>26101.0425126632</v>
+        <v>3639.238798616141</v>
       </c>
       <c r="H17">
-        <v>0.03052824844634616</v>
+        <v>0.03571980008966798</v>
       </c>
       <c r="I17">
-        <v>1182.013909950052</v>
+        <v>1187.943893203314</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1091,31 +1082,31 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>133585.844</v>
+        <v>38465.035</v>
       </c>
       <c r="D18">
-        <v>0.2953518416036127</v>
+        <v>0.9248139239710328</v>
       </c>
       <c r="E18">
-        <v>39454.8250375729</v>
+        <v>35572.99995403311</v>
       </c>
       <c r="F18">
-        <v>0.6741199099500413</v>
+        <v>0.03634751776327397</v>
       </c>
       <c r="G18">
-        <v>90052.87712788025</v>
+        <v>1398.108542927455</v>
       </c>
       <c r="H18">
-        <v>0.03052824844634616</v>
+        <v>0.03292999288485467</v>
       </c>
       <c r="I18">
-        <v>4078.141834546839</v>
+        <v>1266.653328865686</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.005908565380838581</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>227.2731741737443</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1126,25 +1117,25 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>33257.29399999999</v>
+        <v>51165.24</v>
       </c>
       <c r="D19">
-        <v>0.2953518416036127</v>
+        <v>0.87123704802994</v>
       </c>
       <c r="E19">
-        <v>9822.603029652777</v>
+        <v>44577.0526593434</v>
       </c>
       <c r="F19">
-        <v>0.6741199099500413</v>
+        <v>0.08529242819010917</v>
       </c>
       <c r="G19">
-        <v>22419.40403646205</v>
+        <v>4364.007558529701</v>
       </c>
       <c r="H19">
-        <v>0.03052824844634616</v>
+        <v>0.04347052377995093</v>
       </c>
       <c r="I19">
-        <v>1015.286933885177</v>
+        <v>2224.179782126896</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1160,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1203,31 +1194,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>20572.68</v>
+        <v>8068.02</v>
       </c>
       <c r="D2">
-        <v>0.7203196040432472</v>
+        <v>0.7106540107189163</v>
       </c>
       <c r="E2">
-        <v>14818.90471170843</v>
+        <v>5733.570771560431</v>
       </c>
       <c r="F2">
-        <v>0.2796803959567528</v>
+        <v>0.1940314058866316</v>
       </c>
       <c r="G2">
-        <v>5753.775288291569</v>
+        <v>1565.449263321462</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.09531458339445194</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>768.9999651181062</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1238,206 +1229,206 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>40252.5</v>
+        <v>4224.36</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.3290499252879423</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1390.025342389372</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6036718536496696</v>
       </c>
       <c r="G3">
-        <v>40252.5</v>
+        <v>2550.127231683518</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01970547031554419</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>83.24300058217226</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04757275074684381</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>200.9644253449371</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
       <c r="C4">
-        <v>17720.28</v>
+        <v>6094.320000000001</v>
       </c>
       <c r="D4">
-        <v>0.2686371247226884</v>
+        <v>0.451490579415013</v>
       </c>
       <c r="E4">
-        <v>4760.32506848096</v>
+        <v>2751.528067940502</v>
       </c>
       <c r="F4">
-        <v>0.5716063443351023</v>
+        <v>0.4698528086710667</v>
       </c>
       <c r="G4">
-        <v>10129.02447139443</v>
+        <v>2863.433368940255</v>
       </c>
       <c r="H4">
-        <v>0.1597565309422093</v>
+        <v>0.03905124774921262</v>
       </c>
       <c r="I4">
-        <v>2830.930460124614</v>
+        <v>237.9908001829814</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03960536416470775</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>241.3677629362618</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>8068.02</v>
+        <v>6802.02</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2418234127364369</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1644.887689901499</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.7294574180822524</v>
       </c>
       <c r="G5">
-        <v>8068.02</v>
+        <v>4961.783946943842</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02208829116628782</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>150.2449982789131</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.006630878015022912</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>45.10336487574614</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>6802.02</v>
+        <v>17720.28</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.03115927001577109</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>552.1509892750681</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.8586113691592343</v>
       </c>
       <c r="G6">
-        <v>6802.02</v>
+        <v>15214.833872685</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0225249404565677</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>399.1482518737076</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08770442036842702</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1554.14688616623</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>6094.320000000001</v>
+        <v>19083.692</v>
       </c>
       <c r="D7">
-        <v>0.5480373400211801</v>
+        <v>0.3453075914522154</v>
       </c>
       <c r="E7">
-        <v>3339.914922037879</v>
+        <v>6589.743720535912</v>
       </c>
       <c r="F7">
-        <v>0.18983405326939</v>
+        <v>0.5658377226259738</v>
       </c>
       <c r="G7">
-        <v>1156.909467520709</v>
+        <v>10798.27282057552</v>
       </c>
       <c r="H7">
-        <v>0.1812730652342958</v>
+        <v>0.0592864017109811</v>
       </c>
       <c r="I7">
-        <v>1104.736066918673</v>
+        <v>1131.403430040636</v>
       </c>
       <c r="J7">
-        <v>0.08085554147513409</v>
+        <v>0.02956828421082979</v>
       </c>
       <c r="K7">
-        <v>492.7595435227392</v>
+        <v>564.2720288479387</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>8861.76</v>
+        <v>7663.161999999999</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.6672571779664611</v>
       </c>
       <c r="E8">
-        <v>8861.76</v>
+        <v>5113.299850419822</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.259974004174096</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1992.222909774774</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.07276881785944292</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>557.6392398054044</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1448,136 +1439,136 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>17720.28</v>
+        <v>5235.094999999999</v>
       </c>
       <c r="D9">
-        <v>0.6986378325573731</v>
+        <v>0.430018342774032</v>
       </c>
       <c r="E9">
-        <v>12380.05801150977</v>
+        <v>2251.186876164621</v>
       </c>
       <c r="F9">
-        <v>0.1309296905708729</v>
+        <v>0.4386203619332985</v>
       </c>
       <c r="G9">
-        <v>2320.110777229227</v>
+        <v>2296.219263655201</v>
       </c>
       <c r="H9">
-        <v>0.1704324768717539</v>
+        <v>0.07445704614588498</v>
       </c>
       <c r="I9">
-        <v>3020.111211261004</v>
+        <v>389.7897099930917</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05690424914678459</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>297.8991501870862</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>8068.02</v>
+        <v>8036.82</v>
       </c>
       <c r="D10">
-        <v>0.6986378325573731</v>
+        <v>0.503759477991108</v>
       </c>
       <c r="E10">
-        <v>5636.624005829538</v>
+        <v>4048.624247908496</v>
       </c>
       <c r="F10">
-        <v>0.1309296905708729</v>
+        <v>0.3269055964410499</v>
       </c>
       <c r="G10">
-        <v>1056.343362119614</v>
+        <v>2627.281435589359</v>
       </c>
       <c r="H10">
-        <v>0.1704324768717539</v>
+        <v>0.06928128169712645</v>
       </c>
       <c r="I10">
-        <v>1375.052632050848</v>
+        <v>556.8011903690998</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1000536438707157</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>804.1131261330457</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>7309.320000000001</v>
+        <v>8861.76</v>
       </c>
       <c r="D11">
-        <v>0.6986378325573731</v>
+        <v>0.3042856291533364</v>
       </c>
       <c r="E11">
-        <v>5106.567482268259</v>
+        <v>2696.50621700587</v>
       </c>
       <c r="F11">
-        <v>0.1309296905708729</v>
+        <v>0.53127577367946</v>
       </c>
       <c r="G11">
-        <v>957.0070058834925</v>
+        <v>4708.038400161691</v>
       </c>
       <c r="H11">
-        <v>0.1704324768717539</v>
+        <v>0.1465290131006264</v>
       </c>
       <c r="I11">
-        <v>1245.745511848248</v>
+        <v>1298.504947134607</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01790958406657735</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>158.7104356978325</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>5531.242</v>
+        <v>20572.68</v>
       </c>
       <c r="D12">
-        <v>0.4671520190982254</v>
+        <v>0.5351307850709578</v>
       </c>
       <c r="E12">
-        <v>2583.930868420906</v>
+        <v>11009.07439941359</v>
       </c>
       <c r="F12">
-        <v>0.4362981448828352</v>
+        <v>0.427848515348812</v>
       </c>
       <c r="G12">
-        <v>2413.270623498023</v>
+        <v>8801.990594746198</v>
       </c>
       <c r="H12">
-        <v>0.09654983601893945</v>
+        <v>0.03702069958023029</v>
       </c>
       <c r="I12">
-        <v>534.0405080810707</v>
+        <v>761.6150058402121</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1588,71 +1579,36 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>19083.692</v>
+        <v>14877.72</v>
       </c>
       <c r="D13">
-        <v>0.4671520190982254</v>
+        <v>0.1606215520728562</v>
       </c>
       <c r="E13">
-        <v>8914.985249648651</v>
+        <v>2389.682477705374</v>
       </c>
       <c r="F13">
-        <v>0.4362981448828352</v>
+        <v>0.8104340121734962</v>
       </c>
       <c r="G13">
-        <v>8326.179417115405</v>
+        <v>12057.41031159387</v>
       </c>
       <c r="H13">
-        <v>0.09654983601893945</v>
+        <v>0.02894443575364755</v>
       </c>
       <c r="I13">
-        <v>1842.527333235947</v>
+        <v>430.6272107007573</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>4751.041999999999</v>
-      </c>
-      <c r="D14">
-        <v>0.4671520190982254</v>
-      </c>
-      <c r="E14">
-        <v>2219.458863120471</v>
-      </c>
-      <c r="F14">
-        <v>0.4362981448828352</v>
-      </c>
-      <c r="G14">
-        <v>2072.870810860435</v>
-      </c>
-      <c r="H14">
-        <v>0.09654983601893945</v>
-      </c>
-      <c r="I14">
-        <v>458.7123260190941</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
         <v>0</v>
       </c>
     </row>
@@ -1663,7 +1619,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1706,31 +1662,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>2112.18</v>
+        <v>4034.01</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.5993405930558749</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2417.74594579333</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3636580578984003</v>
       </c>
       <c r="G2">
-        <v>2112.18</v>
+        <v>1467.000242142726</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03700134904572487</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>149.2638120639446</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1741,66 +1697,66 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>20126.25</v>
+        <v>2112.18</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1643234671516556</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>347.0807408483839</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.7269411387684906</v>
       </c>
       <c r="G3">
-        <v>20126.25</v>
+        <v>1535.430534484031</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02725234414210714</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>57.56185625007586</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08148304993774656</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>172.1068684175095</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>8860.140000000001</v>
+        <v>3047.16</v>
       </c>
       <c r="D4">
-        <v>0.4958472855812806</v>
+        <v>0.4917716660792545</v>
       </c>
       <c r="E4">
-        <v>4393.276368870127</v>
+        <v>1498.506950010061</v>
       </c>
       <c r="F4">
-        <v>0.2016356958596897</v>
+        <v>0.5018100436891416</v>
       </c>
       <c r="G4">
-        <v>1786.520494314271</v>
+        <v>1529.095492727805</v>
       </c>
       <c r="H4">
-        <v>0.3025170185590298</v>
+        <v>0.006418290231603986</v>
       </c>
       <c r="I4">
-        <v>2680.343136815603</v>
+        <v>19.5575572621344</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1811,31 +1767,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>4034.01</v>
+        <v>3401.01</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.4068563174242845</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1383.722404123166</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5438038650798588</v>
       </c>
       <c r="G5">
-        <v>4034.01</v>
+        <v>1849.482383175251</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.04933981749585655</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>167.8052127015831</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1846,25 +1802,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>3654.66</v>
+        <v>8860.140000000001</v>
       </c>
       <c r="D6">
-        <v>0.8405128819480061</v>
+        <v>0.07562392814612101</v>
       </c>
       <c r="E6">
-        <v>3071.788809140101</v>
+        <v>670.0385907245727</v>
       </c>
       <c r="F6">
-        <v>0.1594871180519939</v>
+        <v>0.9243760718538789</v>
       </c>
       <c r="G6">
-        <v>582.8711908598999</v>
+        <v>8190.101409275428</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1881,31 +1837,31 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
       <c r="C7">
-        <v>3401.01</v>
+        <v>9541.846000000001</v>
       </c>
       <c r="D7">
-        <v>0.5079094701116023</v>
+        <v>0.5497172552716943</v>
       </c>
       <c r="E7">
-        <v>1727.405186944261</v>
+        <v>5245.317393345196</v>
       </c>
       <c r="F7">
-        <v>0.4920905298883979</v>
+        <v>0.3892670239583827</v>
       </c>
       <c r="G7">
-        <v>1673.60481305574</v>
+        <v>3714.325995489198</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.06101572076992296</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>582.2026111656064</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1919,28 +1875,28 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>7438.86</v>
+        <v>3831.581</v>
       </c>
       <c r="D8">
-        <v>0.5648647401941971</v>
+        <v>0.4732055462978784</v>
       </c>
       <c r="E8">
-        <v>4201.949721241004</v>
+        <v>1813.125380289571</v>
       </c>
       <c r="F8">
-        <v>0.4351352598058029</v>
+        <v>0.4835065653399762</v>
       </c>
       <c r="G8">
-        <v>3236.910278758995</v>
+        <v>1852.594569131911</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0432878883621454</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>165.8610505785174</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1951,136 +1907,136 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>20126.25</v>
+        <v>2617.5475</v>
       </c>
       <c r="D9">
-        <v>0.5514290487937468</v>
+        <v>0.2802404301971404</v>
       </c>
       <c r="E9">
-        <v>11098.19889328515</v>
+        <v>733.5426374614493</v>
       </c>
       <c r="F9">
-        <v>0.4485709512062533</v>
+        <v>0.5367967648046197</v>
       </c>
       <c r="G9">
-        <v>9028.051106714855</v>
+        <v>1405.09102972242</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1358818889553052</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>355.6772987302368</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.04708091604293471</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>123.2365340858937</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>8860.140000000001</v>
+        <v>4018.41</v>
       </c>
       <c r="D10">
-        <v>0.5697812081955935</v>
+        <v>0.5337870602633682</v>
       </c>
       <c r="E10">
-        <v>5048.341273982106</v>
+        <v>2144.975260832921</v>
       </c>
       <c r="F10">
-        <v>0.4302187918044066</v>
+        <v>0.3095139273790007</v>
       </c>
       <c r="G10">
-        <v>3811.798726017895</v>
+        <v>1243.753860919051</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1393912851416745</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>560.1313341261562</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0173077272159565</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>69.54954412187176</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>4034.01</v>
+        <v>4430.88</v>
       </c>
       <c r="D11">
-        <v>0.5697812081955935</v>
+        <v>0.3287750150324628</v>
       </c>
       <c r="E11">
-        <v>2298.503091673106</v>
+        <v>1456.762638607039</v>
       </c>
       <c r="F11">
-        <v>0.4302187918044066</v>
+        <v>0.5839649092903765</v>
       </c>
       <c r="G11">
-        <v>1735.506908326894</v>
+        <v>2587.478437276543</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.08115156926686631</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>359.5728652331726</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.006108506410294514</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>27.06605888324576</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>3654.66</v>
+        <v>10286.34</v>
       </c>
       <c r="D12">
-        <v>0.5697812081955935</v>
+        <v>0.5928738109452726</v>
       </c>
       <c r="E12">
-        <v>2082.356590344108</v>
+        <v>6098.501596478795</v>
       </c>
       <c r="F12">
-        <v>0.4302187918044066</v>
+        <v>0.2064855341440782</v>
       </c>
       <c r="G12">
-        <v>1572.303409655892</v>
+        <v>2123.980409287598</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2006406549106493</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2063.857994233608</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2091,107 +2047,37 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>2765.621</v>
+        <v>7438.86</v>
       </c>
       <c r="D13">
-        <v>0.112582448398471</v>
+        <v>0.3666693062507451</v>
       </c>
       <c r="E13">
-        <v>311.3603835222277</v>
+        <v>2727.601635496417</v>
       </c>
       <c r="F13">
-        <v>0.8584936775155422</v>
+        <v>0.5168045651851666</v>
       </c>
       <c r="G13">
-        <v>2374.268142904211</v>
+        <v>3844.436807773328</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.06306542781760052</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>469.1348883752358</v>
       </c>
       <c r="J13">
-        <v>0.02892387408598686</v>
+        <v>0.05346070074648779</v>
       </c>
       <c r="K13">
-        <v>79.99247357356106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>9541.846000000001</v>
-      </c>
-      <c r="D14">
-        <v>0.112582448398471</v>
-      </c>
-      <c r="E14">
-        <v>1074.244384921157</v>
-      </c>
-      <c r="F14">
-        <v>0.8584936775155422</v>
-      </c>
-      <c r="G14">
-        <v>8191.614462826968</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.02892387408598686</v>
-      </c>
-      <c r="K14">
-        <v>275.9871522518774</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>2375.521</v>
-      </c>
-      <c r="D15">
-        <v>0.112582448398471</v>
-      </c>
-      <c r="E15">
-        <v>267.4419704019842</v>
-      </c>
-      <c r="F15">
-        <v>0.8584936775155422</v>
-      </c>
-      <c r="G15">
-        <v>2039.369759305398</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.02892387408598686</v>
-      </c>
-      <c r="K15">
-        <v>68.70927029261759</v>
+        <v>397.6866683550181</v>
       </c>
     </row>
   </sheetData>
@@ -2201,7 +2087,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2244,212 +2130,37 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>26580.42</v>
+        <v>13292.64</v>
       </c>
       <c r="D2">
-        <v>0.2304031860173474</v>
+        <v>0.3202038642640018</v>
       </c>
       <c r="E2">
-        <v>6124.213453679222</v>
+        <v>4256.354694270241</v>
       </c>
       <c r="F2">
-        <v>0.4969275497660341</v>
+        <v>0.6089976789828835</v>
       </c>
       <c r="G2">
-        <v>13208.54298235209</v>
+        <v>8095.186907555035</v>
       </c>
       <c r="H2">
-        <v>0.2726692642166184</v>
+        <v>0.06801939348145869</v>
       </c>
       <c r="I2">
-        <v>7247.663563968687</v>
+        <v>904.157310567377</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.002779063271655956</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>12102.03</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>12102.03</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>10963.98</v>
-      </c>
-      <c r="D4">
-        <v>0.7820095700217157</v>
-      </c>
-      <c r="E4">
-        <v>8573.93728552669</v>
-      </c>
-      <c r="F4">
-        <v>0.2179904299782842</v>
-      </c>
-      <c r="G4">
-        <v>2390.042714473308</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
-        <v>10203.03</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>10203.03</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>9141.48</v>
-      </c>
-      <c r="D6">
-        <v>0.233279274036484</v>
-      </c>
-      <c r="E6">
-        <v>2132.517818019037</v>
-      </c>
-      <c r="F6">
-        <v>0.7667207259635161</v>
-      </c>
-      <c r="G6">
-        <v>7008.962181980963</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>13292.64</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>13292.64</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+        <v>36.94108760734483</v>
       </c>
     </row>
   </sheetData>
